--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/core_full_deluxe20off_pnlfcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/core_full_deluxe20off_pnlfcp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr_optimization\gr_optimization\Input_Output\BuyflowValidation\Merchandising Input\WestmoreBeauty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17546529-6B45-4C1C-84A1-4240FCF67DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{E5C1CF40-222A-4C33-BF7A-A2BC70F584C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED9A0B9F-2264-4F2E-A195-2BC9F3C48686}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
     <sheet name="Version 1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -312,6 +312,9 @@
     <t>Free gift Coverage Perfector Foundation Brush - WY3A0055</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Entry Promotion 2</t>
   </si>
   <si>
@@ -895,9 +898,6 @@
   </si>
   <si>
     <t xml:space="preserve">RWYA34G </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>20%off Deluxe Kit Fixed price Promotion</t>
@@ -912,7 +912,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1865,9 +1865,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAAF282C-6BAB-4911-9687-EC003C712D2A}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="45.42578125" customWidth="1"/>
@@ -1881,7 +1883,7 @@
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="49" customFormat="1" ht="16.5">
       <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="31.5">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="15.75">
       <c r="A11" s="72" t="s">
         <v>42</v>
       </c>
@@ -2130,7 +2132,7 @@
       <c r="L11" s="73"/>
       <c r="M11" s="73"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75">
       <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.75">
       <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.75">
       <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -2311,7 +2313,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.75">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2393,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.75">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -2422,7 +2424,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.75">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="220.5">
       <c r="A23" s="15" t="s">
         <v>83</v>
       </c>
@@ -2586,7 +2588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="180">
       <c r="A24" s="15" t="s">
         <v>86</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="31.5">
       <c r="A25" s="15" t="s">
         <v>90</v>
       </c>
@@ -2649,69 +2651,69 @@
       <c r="G25" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H25" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H25" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75">
       <c r="A27" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2720,27 +2722,27 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75">
       <c r="A28" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2755,27 +2757,27 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75">
       <c r="A29" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -2784,27 +2786,27 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75">
       <c r="A30" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
@@ -2813,91 +2815,91 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75">
       <c r="A31" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75">
       <c r="A32" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L32" s="23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M32" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75">
       <c r="A33" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" s="26">
         <v>47.96</v>
@@ -2936,9 +2938,9 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.75">
       <c r="A34" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" s="26">
         <v>0</v>
@@ -2977,9 +2979,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75">
       <c r="A35" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" s="22">
         <v>3</v>
@@ -3018,173 +3020,173 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.75">
       <c r="A36" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H36" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M36" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="204.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="204.75">
       <c r="A37" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L37" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M37" s="33" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="180">
       <c r="A38" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K38" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="165">
       <c r="A39" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J39" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K39" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="31.5">
       <c r="A40" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>91</v>
@@ -3204,28 +3206,28 @@
       <c r="G40" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="I40" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="J40" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="K40" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="L40" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="M40" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H40" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="M40" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75">
       <c r="A41" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -3240,91 +3242,91 @@
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
     </row>
-    <row r="42" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="47.25">
       <c r="A42" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M42" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75">
       <c r="A43" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L43" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M43" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75">
       <c r="A44" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -3339,9 +3341,9 @@
       <c r="L44" s="31"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.75">
       <c r="A45" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -3356,9 +3358,9 @@
       <c r="L45" s="24"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.75">
       <c r="A46" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -3373,91 +3375,91 @@
       <c r="L46" s="24"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.75">
       <c r="A47" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I47" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L47" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75">
       <c r="A48" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G48" s="63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I48" s="23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L48" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M48" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15.75">
       <c r="A49" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B49" s="22">
         <v>3</v>
@@ -3496,9 +3498,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.75">
       <c r="A50" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -3513,9 +3515,9 @@
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.75">
       <c r="A51" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B51" s="26">
         <v>59.95</v>
@@ -3554,9 +3556,9 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.75">
       <c r="A52" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B52" s="28">
         <v>3.99</v>
@@ -3595,91 +3597,91 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="15.75">
       <c r="A53" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L53" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15.75">
       <c r="A54" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I54" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15.75">
       <c r="A55" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -3694,9 +3696,9 @@
       <c r="L55" s="24"/>
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" ht="15.75">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" s="32">
         <v>3</v>
@@ -3735,9 +3737,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75">
       <c r="A57" s="74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -3752,91 +3754,91 @@
       <c r="L57" s="75"/>
       <c r="M57" s="75"/>
     </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" ht="15.75">
       <c r="A58" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I58" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="32.25" customHeight="1">
       <c r="A59" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G59" s="63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I59" s="23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L59" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M59" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15.75">
       <c r="A60" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -3851,9 +3853,9 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" ht="15.75">
       <c r="A61" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>65</v>
@@ -3892,9 +3894,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="15.75">
       <c r="A62" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -3933,9 +3935,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" ht="15.75">
       <c r="A63" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B63" s="28">
         <v>69.95</v>
@@ -3962,9 +3964,9 @@
       <c r="L63" s="24"/>
       <c r="M63" s="23"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" ht="15.75">
       <c r="A64" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B64" s="28">
         <v>57.96</v>
@@ -4003,9 +4005,9 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="15.75">
       <c r="A65" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" s="28">
         <v>0</v>
@@ -4044,187 +4046,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.75">
       <c r="A66" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G66" s="63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H66" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I66" s="23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J66" s="23" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K66" s="23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L66" s="23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="31.5">
       <c r="A67" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F67" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G67" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="H67" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="I67" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="J67" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="K67" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="L67" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="M67" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H67" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J67" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K67" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L67" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="31.5">
       <c r="A68" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F68" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G68" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" s="61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15.75">
       <c r="A69" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C69" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G69" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I69" s="61"/>
       <c r="J69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M69" s="24"/>
     </row>
-    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" ht="31.5">
       <c r="A70" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D70" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F70" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G70" s="59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23"/>
@@ -4233,214 +4235,214 @@
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="15.75">
       <c r="A71" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I71" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K71" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L71" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15.75">
       <c r="A72" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H72" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I72" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J72" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K72" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L72" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="220.5">
       <c r="A73" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F73" s="55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H73" s="52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I73" s="52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J73" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K73" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L73" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M73" s="52" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="189" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="189">
       <c r="A74" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H74" s="52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I74" s="52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J74" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K74" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L74" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M74" s="52" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15.75">
       <c r="A75" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G75" s="63" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I75" s="23" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J75" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K75" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L75" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M75" s="24" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.75">
       <c r="A76" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -4455,50 +4457,50 @@
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="15.75">
       <c r="A77" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H77" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I77" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L77" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.75">
       <c r="A78" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B78" s="22">
         <v>3</v>
@@ -4537,9 +4539,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="15.75">
       <c r="A79" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B79" s="28">
         <v>57.96</v>
@@ -4578,9 +4580,9 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="15.75">
       <c r="A80" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="28">
         <v>0</v>
@@ -4619,214 +4621,214 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="15.75">
       <c r="A81" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H81" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I81" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L81" s="24" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M81" s="24" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.75">
       <c r="A82" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H82" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I82" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L82" s="24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M82" s="52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="220.5">
       <c r="A83" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H83" s="52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I83" s="52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J83" s="51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K83" s="51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L83" s="51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M83" s="52" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="189" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="189">
       <c r="A84" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H84" s="52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I84" s="52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J84" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K84" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L84" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M84" s="52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="173.25" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="173.25">
       <c r="A85" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H85" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I85" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J85" s="51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K85" s="51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L85" s="51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M85" s="52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.75">
       <c r="A86" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -4841,150 +4843,150 @@
       <c r="L86" s="24"/>
       <c r="M86" s="23"/>
     </row>
-    <row r="87" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="31.5">
       <c r="A87" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E87" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F87" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G87" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="I87" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="M87" s="23" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H87" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I87" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="J87" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="L87" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="M87" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="31.5">
       <c r="A88" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C88" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D88" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F88" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G88" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M88" s="61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="47.25">
       <c r="A89" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C89" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D89" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F89" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G89" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M89" s="61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="31.5">
       <c r="A90" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B90" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C90" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E90" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F90" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G90" s="59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23"/>
@@ -4993,132 +4995,132 @@
       <c r="L90" s="24"/>
       <c r="M90" s="23"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="15.75">
       <c r="A91" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H91" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I91" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L91" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.75">
       <c r="A92" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H92" s="52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I92" s="52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J92" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K92" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L92" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M92" s="52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.75">
       <c r="A93" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G93" s="63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H93" s="52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I93" s="52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J93" s="51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K93" s="51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L93" s="51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.75">
       <c r="A94" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -5133,50 +5135,50 @@
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="15.75">
       <c r="A95" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H95" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I95" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J95" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K95" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L95" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M95" s="52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.75">
       <c r="A96" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B96" s="22">
         <v>3</v>
@@ -5215,9 +5217,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" ht="15.75">
       <c r="A97" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B97" s="28">
         <v>69.95</v>
@@ -5256,9 +5258,9 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" ht="15.75">
       <c r="A98" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B98" s="28">
         <v>3.99</v>
@@ -5297,91 +5299,91 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15.75">
       <c r="A99" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H99" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I99" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J99" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K99" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L99" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M99" s="52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75">
       <c r="A100" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H100" s="52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I100" s="52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J100" s="51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K100" s="51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L100" s="51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M100" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75">
       <c r="A101" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B101" s="42"/>
       <c r="C101" s="42"/>
@@ -5413,11 +5415,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
@@ -5431,7 +5433,7 @@
     <col min="10" max="10" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="8" customFormat="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="49" customFormat="1" ht="16.5">
       <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="18" customFormat="1" ht="31.5">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -5523,7 +5525,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -5553,7 +5555,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -5583,7 +5585,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -5613,7 +5615,7 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="8" customFormat="1" ht="15.75">
       <c r="A11" s="76" t="s">
         <v>42</v>
       </c>
@@ -5626,7 +5628,7 @@
       <c r="H11" s="77"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
@@ -5656,7 +5658,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
@@ -5686,7 +5688,7 @@
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
@@ -5716,7 +5718,7 @@
       </c>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -5746,7 +5748,7 @@
       </c>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -5760,7 +5762,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5790,7 +5792,7 @@
       </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -5820,7 +5822,7 @@
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -5842,7 +5844,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -5872,7 +5874,7 @@
       </c>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -5902,7 +5904,7 @@
       </c>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -5928,11 +5930,11 @@
         <v>80</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="220.5">
       <c r="A23" s="15" t="s">
         <v>83</v>
       </c>
@@ -5962,7 +5964,7 @@
       </c>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="180">
       <c r="A24" s="15" t="s">
         <v>86</v>
       </c>
@@ -5992,7 +5994,7 @@
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="31.5">
       <c r="A25" s="15" t="s">
         <v>90</v>
       </c>
@@ -6014,61 +6016,61 @@
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75">
       <c r="A26" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75">
       <c r="A27" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75">
       <c r="A28" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -6080,21 +6082,21 @@
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75">
       <c r="A29" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="24"/>
@@ -6102,21 +6104,21 @@
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75">
       <c r="A30" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
@@ -6124,69 +6126,69 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75">
       <c r="A31" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75">
       <c r="A32" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I32" s="24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="A33" s="25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" s="26">
         <v>47.96</v>
@@ -6214,9 +6216,9 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B34" s="26">
         <v>0</v>
@@ -6244,9 +6246,9 @@
       </c>
       <c r="J34" s="31"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75">
       <c r="A35" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B35" s="22">
         <v>3</v>
@@ -6274,129 +6276,129 @@
       </c>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75">
       <c r="A36" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I36" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="204.75">
       <c r="A37" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J37" s="34"/>
     </row>
-    <row r="38" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="180">
       <c r="A38" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I38" s="37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="165">
       <c r="A39" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J39" s="37"/>
     </row>
-    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="31.5">
       <c r="A40" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="38" t="s">
         <v>91</v>
@@ -6416,9 +6418,9 @@
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75">
       <c r="A41" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -6430,69 +6432,69 @@
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="47.25">
       <c r="A42" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I42" s="40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75">
       <c r="A43" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G43" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I43" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75">
       <c r="A44" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22"/>
@@ -6504,9 +6506,9 @@
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75">
       <c r="A45" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -6518,9 +6520,9 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75">
       <c r="A46" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -6532,69 +6534,69 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75">
       <c r="A47" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G47" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75">
       <c r="A48" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G48" s="24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75">
       <c r="A49" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B49" s="22">
         <v>3</v>
@@ -6622,9 +6624,9 @@
       </c>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75">
       <c r="A50" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
@@ -6636,9 +6638,9 @@
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75">
       <c r="A51" s="25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B51" s="26">
         <v>59.95</v>
@@ -6666,9 +6668,9 @@
       </c>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75">
       <c r="A52" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B52" s="28">
         <v>3.99</v>
@@ -6696,69 +6698,69 @@
       </c>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75">
       <c r="A53" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H53" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I53" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J53" s="24"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75">
       <c r="A54" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -6770,9 +6772,9 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B56" s="32">
         <v>3</v>
@@ -6800,9 +6802,9 @@
       </c>
       <c r="J56" s="34"/>
     </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A57" s="79" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
@@ -6813,69 +6815,69 @@
       <c r="H57" s="80"/>
       <c r="I57" s="81"/>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75">
       <c r="A58" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="32.25" customHeight="1">
       <c r="A59" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G59" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75">
       <c r="A60" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -6887,9 +6889,9 @@
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75">
       <c r="A61" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>65</v>
@@ -6917,9 +6919,9 @@
       </c>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75">
       <c r="A62" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B62" s="22">
         <v>1</v>
@@ -6947,9 +6949,9 @@
       </c>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75">
       <c r="A63" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B63" s="28">
         <v>69.95</v>
@@ -6969,9 +6971,9 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75">
       <c r="A64" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B64" s="28">
         <v>57.96</v>
@@ -6999,9 +7001,9 @@
       </c>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B65" s="28">
         <v>0</v>
@@ -7029,129 +7031,129 @@
       </c>
       <c r="J65" s="31"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G66" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I66" s="24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="31.5">
       <c r="A67" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C67" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E67" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F67" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="G67" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="H67" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="I67" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="31.5">
       <c r="A68" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E68" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75">
       <c r="A69" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B69" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C69" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D69" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E69" s="60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="31.5">
       <c r="A70" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70" s="22" t="s">
         <v>282</v>
@@ -7171,159 +7173,159 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75">
       <c r="A71" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.75">
       <c r="A72" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I72" s="24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="220.5">
       <c r="A73" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C73" s="55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D73" s="55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E73" s="55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F73" s="52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G73" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H73" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I73" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="189" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="189">
       <c r="A74" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F74" s="52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G74" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H74" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I74" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75">
       <c r="A75" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G75" s="24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I75" s="24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75">
       <c r="A76" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -7335,39 +7337,39 @@
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75">
       <c r="A77" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G77" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75">
       <c r="A78" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B78" s="22">
         <v>3</v>
@@ -7395,9 +7397,9 @@
       </c>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75">
       <c r="A79" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B79" s="28">
         <v>57.96</v>
@@ -7425,9 +7427,9 @@
       </c>
       <c r="J79" s="31"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75">
       <c r="A80" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B80" s="28">
         <v>0</v>
@@ -7455,159 +7457,159 @@
       </c>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75">
       <c r="A81" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F81" s="52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G81" s="51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H81" s="51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I81" s="51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75">
       <c r="A82" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F82" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G82" s="51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H82" s="51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I82" s="51" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J82" s="24"/>
     </row>
-    <row r="83" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="220.5">
       <c r="A83" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E83" s="55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G83" s="51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H83" s="51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I83" s="51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J83" s="24"/>
     </row>
-    <row r="84" spans="1:10" ht="189" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="189">
       <c r="A84" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F84" s="52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G84" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H84" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I84" s="51" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J84" s="24"/>
     </row>
-    <row r="85" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="173.25">
       <c r="A85" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F85" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G85" s="51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H85" s="51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I85" s="51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J85" s="24"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75">
       <c r="A86" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -7619,99 +7621,99 @@
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
     </row>
-    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="31.5">
       <c r="A87" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B87" s="57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E87" s="58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F87" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="G87" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="H87" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="I87" s="62" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="J87" s="24"/>
     </row>
-    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="31.5">
       <c r="A88" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B88" s="59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D88" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E88" s="60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I88" s="61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J88" s="24"/>
     </row>
-    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="47.25">
       <c r="A89" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B89" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D89" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E89" s="60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I89" s="61" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J89" s="24"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="31.5">
       <c r="A90" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B90" s="22" t="s">
         <v>282</v>
@@ -7731,99 +7733,99 @@
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75">
       <c r="A91" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G91" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I91" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J91" s="24"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75">
       <c r="A92" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F92" s="52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G92" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H92" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I92" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J92" s="24"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F93" s="52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G93" s="51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H93" s="51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I93" s="51" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J93" s="24"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75">
       <c r="A94" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -7835,39 +7837,39 @@
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75">
       <c r="A95" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G95" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H95" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I95" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J95" s="24"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75">
       <c r="A96" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B96" s="22">
         <v>3</v>
@@ -7895,9 +7897,9 @@
       </c>
       <c r="J96" s="24"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75">
       <c r="A97" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B97" s="28">
         <v>69.95</v>
@@ -7925,9 +7927,9 @@
       </c>
       <c r="J97" s="31"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75">
       <c r="A98" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B98" s="28">
         <v>3.99</v>
@@ -7955,69 +7957,69 @@
       </c>
       <c r="J98" s="31"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75">
       <c r="A99" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F99" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G99" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H99" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I99" s="51" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J99" s="24"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75">
       <c r="A100" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F100" s="52" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G100" s="51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H100" s="51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I100" s="51" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J100" s="24"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75">
       <c r="A101" s="41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B101" s="42"/>
       <c r="C101" s="42"/>
@@ -8223,37 +8225,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
-    <ds:schemaRef ds:uri="3e63a3be-2d53-41f2-914e-dd0efc332534"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/core_full_deluxe20off_pnlfcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/core_full_deluxe20off_pnlfcp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{E5C1CF40-222A-4C33-BF7A-A2BC70F584C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED9A0B9F-2264-4F2E-A195-2BC9F3C48686}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{E5C1CF40-222A-4C33-BF7A-A2BC70F584C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8C452520-664C-4F45-A211-D0A0360F1B74}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5415,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8045,9 +8045,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8216,16 +8219,13 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8233,5 +8233,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/core_full_deluxe20off_pnlfcp.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/WestmoreBeauty/core_full_deluxe20off_pnlfcp.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/WestmoreBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{E5C1CF40-222A-4C33-BF7A-A2BC70F584C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8C452520-664C-4F45-A211-D0A0360F1B74}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="13_ncr:1_{E5C1CF40-222A-4C33-BF7A-A2BC70F584C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2CF3498-A577-4219-8843-62AA9F95110A}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18450" yWindow="-16320" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="2" r:id="rId1"/>
     <sheet name="Version 1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="284">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -895,6 +895,9 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Pre-Purchase Recommendation Type</t>
   </si>
   <si>
     <t xml:space="preserve">RWYA34G </t>
@@ -912,7 +915,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1030,7 +1033,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1302,13 +1305,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1516,6 +1560,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1869,7 +1925,7 @@
       <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="45.42578125" customWidth="1"/>
@@ -1883,7 +1939,7 @@
     <col min="13" max="13" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="49" customFormat="1" ht="16.5">
+    <row r="2" spans="1:13" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
@@ -1951,7 +2007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" ht="31.5">
+    <row r="7" spans="1:13" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -1992,7 +2048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" ht="15.75">
+    <row r="8" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2033,7 +2089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" ht="15.75">
+    <row r="9" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -2074,7 +2130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -2115,24 +2171,24 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="8" customFormat="1" ht="15.75">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
@@ -2173,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
@@ -2214,7 +2270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
@@ -2255,7 +2311,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -2296,7 +2352,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -2313,7 +2369,7 @@
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -2354,7 +2410,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -2424,7 +2480,7 @@
       <c r="L19" s="24"/>
       <c r="M19" s="23"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -2465,7 +2521,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -2506,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -2547,7 +2603,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="220.5">
+    <row r="23" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>83</v>
       </c>
@@ -2588,7 +2644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="180">
+    <row r="24" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>86</v>
       </c>
@@ -2629,7 +2685,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="31.5">
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>90</v>
       </c>
@@ -2670,7 +2726,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>93</v>
       </c>
@@ -2711,7 +2767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>96</v>
       </c>
@@ -2740,7 +2796,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75">
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>98</v>
       </c>
@@ -2757,7 +2813,7 @@
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75">
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>99</v>
       </c>
@@ -2786,7 +2842,7 @@
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75">
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>101</v>
       </c>
@@ -2815,7 +2871,7 @@
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75">
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>102</v>
       </c>
@@ -2856,7 +2912,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75">
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>115</v>
       </c>
@@ -2897,7 +2953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75">
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>128</v>
       </c>
@@ -2938,7 +2994,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>129</v>
       </c>
@@ -2979,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75">
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>130</v>
       </c>
@@ -3020,7 +3076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75">
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>131</v>
       </c>
@@ -3061,7 +3117,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="204.75">
+    <row r="37" spans="1:13" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>134</v>
       </c>
@@ -3102,7 +3158,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="180">
+    <row r="38" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>137</v>
       </c>
@@ -3143,7 +3199,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="165">
+    <row r="39" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>140</v>
       </c>
@@ -3184,7 +3240,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="31.5">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>143</v>
       </c>
@@ -3225,7 +3281,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75">
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>144</v>
       </c>
@@ -3242,7 +3298,7 @@
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
     </row>
-    <row r="42" spans="1:13" ht="47.25">
+    <row r="42" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>145</v>
       </c>
@@ -3283,7 +3339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75">
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>148</v>
       </c>
@@ -3324,7 +3380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>149</v>
       </c>
@@ -3341,7 +3397,7 @@
       <c r="L44" s="31"/>
       <c r="M44" s="30"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>150</v>
       </c>
@@ -3358,7 +3414,7 @@
       <c r="L45" s="24"/>
       <c r="M45" s="23"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75">
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>151</v>
       </c>
@@ -3375,7 +3431,7 @@
       <c r="L46" s="24"/>
       <c r="M46" s="23"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75">
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>152</v>
       </c>
@@ -3416,7 +3472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.75">
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>154</v>
       </c>
@@ -3457,7 +3513,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75">
+    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>167</v>
       </c>
@@ -3498,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75">
+    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>168</v>
       </c>
@@ -3515,7 +3571,7 @@
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75">
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>169</v>
       </c>
@@ -3556,7 +3612,7 @@
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75">
+    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>170</v>
       </c>
@@ -3597,7 +3653,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75">
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>171</v>
       </c>
@@ -3638,7 +3694,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75">
+    <row r="54" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>173</v>
       </c>
@@ -3679,7 +3735,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75">
+    <row r="55" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>175</v>
       </c>
@@ -3696,7 +3752,7 @@
       <c r="L55" s="24"/>
       <c r="M55" s="23"/>
     </row>
-    <row r="56" spans="1:13" ht="15.75">
+    <row r="56" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
@@ -3737,24 +3793,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75">
-      <c r="A57" s="74" t="s">
+    <row r="57" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75">
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
+      <c r="I57" s="79"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>178</v>
       </c>
@@ -3795,7 +3851,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="32.25" customHeight="1">
+    <row r="59" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>181</v>
       </c>
@@ -3836,7 +3892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75">
+    <row r="60" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>194</v>
       </c>
@@ -3853,7 +3909,7 @@
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
     </row>
-    <row r="61" spans="1:13" ht="15.75">
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>195</v>
       </c>
@@ -3894,7 +3950,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75">
+    <row r="62" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>196</v>
       </c>
@@ -3935,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75">
+    <row r="63" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>197</v>
       </c>
@@ -3964,7 +4020,7 @@
       <c r="L63" s="24"/>
       <c r="M63" s="23"/>
     </row>
-    <row r="64" spans="1:13" ht="15.75">
+    <row r="64" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>198</v>
       </c>
@@ -4005,7 +4061,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75">
+    <row r="65" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>199</v>
       </c>
@@ -4046,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75">
+    <row r="66" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>200</v>
       </c>
@@ -4087,7 +4143,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="31.5">
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>213</v>
       </c>
@@ -4128,7 +4184,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="31.5">
+    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>215</v>
       </c>
@@ -4169,7 +4225,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75">
+    <row r="69" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>217</v>
       </c>
@@ -4206,7 +4262,7 @@
       </c>
       <c r="M69" s="24"/>
     </row>
-    <row r="70" spans="1:13" ht="31.5">
+    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>219</v>
       </c>
@@ -4235,7 +4291,7 @@
       <c r="L70" s="24"/>
       <c r="M70" s="24"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75">
+    <row r="71" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>221</v>
       </c>
@@ -4276,7 +4332,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75">
+    <row r="72" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>222</v>
       </c>
@@ -4317,7 +4373,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="220.5">
+    <row r="73" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>223</v>
       </c>
@@ -4358,7 +4414,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="189">
+    <row r="74" spans="1:13" ht="189" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>226</v>
       </c>
@@ -4399,7 +4455,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75">
+    <row r="75" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>102</v>
       </c>
@@ -4440,7 +4496,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75">
+    <row r="76" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>241</v>
       </c>
@@ -4457,7 +4513,7 @@
       <c r="L76" s="24"/>
       <c r="M76" s="24"/>
     </row>
-    <row r="77" spans="1:13" ht="15.75">
+    <row r="77" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>242</v>
       </c>
@@ -4498,7 +4554,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75">
+    <row r="78" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>244</v>
       </c>
@@ -4539,7 +4595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75">
+    <row r="79" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>128</v>
       </c>
@@ -4580,7 +4636,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75">
+    <row r="80" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>129</v>
       </c>
@@ -4621,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75">
+    <row r="81" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>115</v>
       </c>
@@ -4662,7 +4718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75">
+    <row r="82" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>131</v>
       </c>
@@ -4703,7 +4759,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="220.5">
+    <row r="83" spans="1:13" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>134</v>
       </c>
@@ -4744,7 +4800,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="189">
+    <row r="84" spans="1:13" ht="189" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>137</v>
       </c>
@@ -4785,7 +4841,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="173.25">
+    <row r="85" spans="1:13" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>263</v>
       </c>
@@ -4826,7 +4882,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75">
+    <row r="86" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>266</v>
       </c>
@@ -4843,7 +4899,7 @@
       <c r="L86" s="24"/>
       <c r="M86" s="23"/>
     </row>
-    <row r="87" spans="1:13" ht="31.5">
+    <row r="87" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>143</v>
       </c>
@@ -4884,7 +4940,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="31.5">
+    <row r="88" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>144</v>
       </c>
@@ -4925,7 +4981,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="47.25">
+    <row r="89" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>145</v>
       </c>
@@ -4966,7 +5022,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="31.5">
+    <row r="90" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>148</v>
       </c>
@@ -4995,7 +5051,7 @@
       <c r="L90" s="24"/>
       <c r="M90" s="23"/>
     </row>
-    <row r="91" spans="1:13" ht="15.75">
+    <row r="91" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>149</v>
       </c>
@@ -5036,7 +5092,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75">
+    <row r="92" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>150</v>
       </c>
@@ -5077,7 +5133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75">
+    <row r="93" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>154</v>
       </c>
@@ -5118,7 +5174,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75">
+    <row r="94" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>151</v>
       </c>
@@ -5135,7 +5191,7 @@
       <c r="L94" s="24"/>
       <c r="M94" s="24"/>
     </row>
-    <row r="95" spans="1:13" ht="15.75">
+    <row r="95" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>152</v>
       </c>
@@ -5176,7 +5232,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75">
+    <row r="96" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>167</v>
       </c>
@@ -5217,7 +5273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75">
+    <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>169</v>
       </c>
@@ -5258,7 +5314,7 @@
         <v>49.95</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75">
+    <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>170</v>
       </c>
@@ -5299,7 +5355,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75">
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>171</v>
       </c>
@@ -5340,7 +5396,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75">
+    <row r="100" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>173</v>
       </c>
@@ -5381,7 +5437,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75">
+    <row r="101" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
         <v>280</v>
       </c>
@@ -5413,13 +5469,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.42578125" customWidth="1"/>
@@ -5433,7 +5489,7 @@
     <col min="10" max="10" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -5455,17 +5511,20 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="49" customFormat="1" ht="16.5">
+    <row r="2" spans="1:11" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>10</v>
       </c>
@@ -5484,18 +5543,21 @@
       <c r="F2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="73">
         <v>53</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="72">
+        <v>802</v>
+      </c>
+      <c r="I2" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="18" customFormat="1" ht="31.5">
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
@@ -5525,7 +5587,7 @@
       </c>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -5555,7 +5617,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -5585,7 +5647,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
@@ -5615,20 +5677,20 @@
       </c>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="8" customFormat="1" ht="15.75">
-      <c r="A11" s="76" t="s">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="78"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
@@ -5658,7 +5720,7 @@
       </c>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>44</v>
       </c>
@@ -5688,7 +5750,7 @@
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>47</v>
       </c>
@@ -5718,7 +5780,7 @@
       </c>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>50</v>
       </c>
@@ -5748,7 +5810,7 @@
       </c>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>63</v>
       </c>
@@ -5762,7 +5824,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -5792,7 +5854,7 @@
       </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>66</v>
       </c>
@@ -5822,7 +5884,7 @@
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>67</v>
       </c>
@@ -5844,7 +5906,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>68</v>
       </c>
@@ -5874,7 +5936,7 @@
       </c>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>69</v>
       </c>
@@ -5904,7 +5966,7 @@
       </c>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>70</v>
       </c>
@@ -5930,11 +5992,11 @@
         <v>80</v>
       </c>
       <c r="I22" s="24" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" ht="220.5">
+    <row r="23" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>83</v>
       </c>
@@ -5964,7 +6026,7 @@
       </c>
       <c r="J23" s="34"/>
     </row>
-    <row r="24" spans="1:10" ht="180">
+    <row r="24" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>86</v>
       </c>
@@ -5994,7 +6056,7 @@
       </c>
       <c r="J24" s="37"/>
     </row>
-    <row r="25" spans="1:10" ht="31.5">
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>90</v>
       </c>
@@ -6016,7 +6078,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="24"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>93</v>
       </c>
@@ -6046,7 +6108,7 @@
       </c>
       <c r="J26" s="24"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>96</v>
       </c>
@@ -6068,7 +6130,7 @@
       </c>
       <c r="J27" s="24"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>98</v>
       </c>
@@ -6082,7 +6144,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>99</v>
       </c>
@@ -6104,7 +6166,7 @@
       <c r="I29" s="24"/>
       <c r="J29" s="24"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>101</v>
       </c>
@@ -6126,7 +6188,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="24"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>102</v>
       </c>
@@ -6156,7 +6218,7 @@
       </c>
       <c r="J31" s="24"/>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>115</v>
       </c>
@@ -6186,7 +6248,7 @@
       </c>
       <c r="J32" s="24"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>128</v>
       </c>
@@ -6216,7 +6278,7 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>129</v>
       </c>
@@ -6246,7 +6308,7 @@
       </c>
       <c r="J34" s="31"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>130</v>
       </c>
@@ -6276,7 +6338,7 @@
       </c>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>131</v>
       </c>
@@ -6306,7 +6368,7 @@
       </c>
       <c r="J36" s="31"/>
     </row>
-    <row r="37" spans="1:10" ht="204.75">
+    <row r="37" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>134</v>
       </c>
@@ -6336,7 +6398,7 @@
       </c>
       <c r="J37" s="34"/>
     </row>
-    <row r="38" spans="1:10" ht="180">
+    <row r="38" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>137</v>
       </c>
@@ -6366,7 +6428,7 @@
       </c>
       <c r="J38" s="37"/>
     </row>
-    <row r="39" spans="1:10" ht="165">
+    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>140</v>
       </c>
@@ -6396,7 +6458,7 @@
       </c>
       <c r="J39" s="37"/>
     </row>
-    <row r="40" spans="1:10" ht="31.5">
+    <row r="40" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>143</v>
       </c>
@@ -6418,7 +6480,7 @@
       <c r="I40" s="24"/>
       <c r="J40" s="24"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75">
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>144</v>
       </c>
@@ -6432,7 +6494,7 @@
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
     </row>
-    <row r="42" spans="1:10" ht="47.25">
+    <row r="42" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>145</v>
       </c>
@@ -6462,7 +6524,7 @@
       </c>
       <c r="J42" s="40"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>148</v>
       </c>
@@ -6492,7 +6554,7 @@
       </c>
       <c r="J43" s="40"/>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>149</v>
       </c>
@@ -6506,7 +6568,7 @@
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>150</v>
       </c>
@@ -6520,7 +6582,7 @@
       <c r="I45" s="24"/>
       <c r="J45" s="24"/>
     </row>
-    <row r="46" spans="1:10" ht="15.75">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>151</v>
       </c>
@@ -6534,7 +6596,7 @@
       <c r="I46" s="24"/>
       <c r="J46" s="24"/>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>152</v>
       </c>
@@ -6564,7 +6626,7 @@
       </c>
       <c r="J47" s="24"/>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>154</v>
       </c>
@@ -6594,7 +6656,7 @@
       </c>
       <c r="J48" s="24"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>167</v>
       </c>
@@ -6624,7 +6686,7 @@
       </c>
       <c r="J49" s="24"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>168</v>
       </c>
@@ -6638,7 +6700,7 @@
       <c r="I50" s="24"/>
       <c r="J50" s="24"/>
     </row>
-    <row r="51" spans="1:10" ht="15.75">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>169</v>
       </c>
@@ -6668,7 +6730,7 @@
       </c>
       <c r="J51" s="27"/>
     </row>
-    <row r="52" spans="1:10" ht="15.75">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>170</v>
       </c>
@@ -6698,7 +6760,7 @@
       </c>
       <c r="J52" s="30"/>
     </row>
-    <row r="53" spans="1:10" ht="15.75">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>171</v>
       </c>
@@ -6728,7 +6790,7 @@
       </c>
       <c r="J53" s="24"/>
     </row>
-    <row r="54" spans="1:10" ht="15.75">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>173</v>
       </c>
@@ -6758,7 +6820,7 @@
       </c>
       <c r="J54" s="24"/>
     </row>
-    <row r="55" spans="1:10" ht="15.75">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>175</v>
       </c>
@@ -6772,7 +6834,7 @@
       <c r="I55" s="24"/>
       <c r="J55" s="24"/>
     </row>
-    <row r="56" spans="1:10" ht="15.75">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>176</v>
       </c>
@@ -6802,20 +6864,20 @@
       </c>
       <c r="J56" s="34"/>
     </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A57" s="79" t="s">
+    <row r="57" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="81"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75">
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="85"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>178</v>
       </c>
@@ -6845,7 +6907,7 @@
       </c>
       <c r="J58" s="24"/>
     </row>
-    <row r="59" spans="1:10" ht="32.25" customHeight="1">
+    <row r="59" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>181</v>
       </c>
@@ -6875,7 +6937,7 @@
       </c>
       <c r="J59" s="24"/>
     </row>
-    <row r="60" spans="1:10" ht="15.75">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>194</v>
       </c>
@@ -6889,7 +6951,7 @@
       <c r="I60" s="24"/>
       <c r="J60" s="24"/>
     </row>
-    <row r="61" spans="1:10" ht="15.75">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>195</v>
       </c>
@@ -6919,7 +6981,7 @@
       </c>
       <c r="J61" s="24"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>196</v>
       </c>
@@ -6949,7 +7011,7 @@
       </c>
       <c r="J62" s="24"/>
     </row>
-    <row r="63" spans="1:10" ht="15.75">
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>197</v>
       </c>
@@ -6971,7 +7033,7 @@
       <c r="I63" s="24"/>
       <c r="J63" s="24"/>
     </row>
-    <row r="64" spans="1:10" ht="15.75">
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>198</v>
       </c>
@@ -7001,7 +7063,7 @@
       </c>
       <c r="J64" s="24"/>
     </row>
-    <row r="65" spans="1:10" ht="15.75">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>199</v>
       </c>
@@ -7031,7 +7093,7 @@
       </c>
       <c r="J65" s="31"/>
     </row>
-    <row r="66" spans="1:10" ht="15.75">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>200</v>
       </c>
@@ -7061,7 +7123,7 @@
       </c>
       <c r="J66" s="24"/>
     </row>
-    <row r="67" spans="1:10" ht="31.5">
+    <row r="67" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="15" t="s">
         <v>213</v>
       </c>
@@ -7091,7 +7153,7 @@
       </c>
       <c r="J67" s="24"/>
     </row>
-    <row r="68" spans="1:10" ht="31.5">
+    <row r="68" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>215</v>
       </c>
@@ -7121,7 +7183,7 @@
       </c>
       <c r="J68" s="24"/>
     </row>
-    <row r="69" spans="1:10" ht="15.75">
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>217</v>
       </c>
@@ -7151,21 +7213,21 @@
       </c>
       <c r="J69" s="24"/>
     </row>
-    <row r="70" spans="1:10" ht="31.5">
+    <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
@@ -7173,7 +7235,7 @@
       <c r="I70" s="24"/>
       <c r="J70" s="24"/>
     </row>
-    <row r="71" spans="1:10" ht="15.75">
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>221</v>
       </c>
@@ -7203,7 +7265,7 @@
       </c>
       <c r="J71" s="24"/>
     </row>
-    <row r="72" spans="1:10" ht="15.75">
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>222</v>
       </c>
@@ -7233,7 +7295,7 @@
       </c>
       <c r="J72" s="24"/>
     </row>
-    <row r="73" spans="1:10" ht="220.5">
+    <row r="73" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>223</v>
       </c>
@@ -7263,7 +7325,7 @@
       </c>
       <c r="J73" s="24"/>
     </row>
-    <row r="74" spans="1:10" ht="189">
+    <row r="74" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>226</v>
       </c>
@@ -7293,7 +7355,7 @@
       </c>
       <c r="J74" s="24"/>
     </row>
-    <row r="75" spans="1:10" ht="15.75">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>102</v>
       </c>
@@ -7323,7 +7385,7 @@
       </c>
       <c r="J75" s="24"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>241</v>
       </c>
@@ -7337,7 +7399,7 @@
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>242</v>
       </c>
@@ -7367,7 +7429,7 @@
       </c>
       <c r="J77" s="24"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>244</v>
       </c>
@@ -7397,7 +7459,7 @@
       </c>
       <c r="J78" s="24"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>128</v>
       </c>
@@ -7427,7 +7489,7 @@
       </c>
       <c r="J79" s="31"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75">
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>129</v>
       </c>
@@ -7457,7 +7519,7 @@
       </c>
       <c r="J80" s="24"/>
     </row>
-    <row r="81" spans="1:10" ht="15.75">
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
         <v>115</v>
       </c>
@@ -7487,7 +7549,7 @@
       </c>
       <c r="J81" s="24"/>
     </row>
-    <row r="82" spans="1:10" ht="15.75">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>131</v>
       </c>
@@ -7517,7 +7579,7 @@
       </c>
       <c r="J82" s="24"/>
     </row>
-    <row r="83" spans="1:10" ht="220.5">
+    <row r="83" spans="1:10" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>134</v>
       </c>
@@ -7547,7 +7609,7 @@
       </c>
       <c r="J83" s="24"/>
     </row>
-    <row r="84" spans="1:10" ht="189">
+    <row r="84" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>137</v>
       </c>
@@ -7577,7 +7639,7 @@
       </c>
       <c r="J84" s="24"/>
     </row>
-    <row r="85" spans="1:10" ht="173.25">
+    <row r="85" spans="1:10" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>263</v>
       </c>
@@ -7607,7 +7669,7 @@
       </c>
       <c r="J85" s="24"/>
     </row>
-    <row r="86" spans="1:10" ht="15.75">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>266</v>
       </c>
@@ -7621,7 +7683,7 @@
       <c r="I86" s="24"/>
       <c r="J86" s="24"/>
     </row>
-    <row r="87" spans="1:10" ht="31.5">
+    <row r="87" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>143</v>
       </c>
@@ -7651,7 +7713,7 @@
       </c>
       <c r="J87" s="24"/>
     </row>
-    <row r="88" spans="1:10" ht="31.5">
+    <row r="88" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>144</v>
       </c>
@@ -7681,7 +7743,7 @@
       </c>
       <c r="J88" s="24"/>
     </row>
-    <row r="89" spans="1:10" ht="47.25">
+    <row r="89" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>145</v>
       </c>
@@ -7711,21 +7773,21 @@
       </c>
       <c r="J89" s="24"/>
     </row>
-    <row r="90" spans="1:10" ht="31.5">
+    <row r="90" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -7733,7 +7795,7 @@
       <c r="I90" s="24"/>
       <c r="J90" s="24"/>
     </row>
-    <row r="91" spans="1:10" ht="15.75">
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
         <v>149</v>
       </c>
@@ -7763,7 +7825,7 @@
       </c>
       <c r="J91" s="24"/>
     </row>
-    <row r="92" spans="1:10" ht="15.75">
+    <row r="92" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>150</v>
       </c>
@@ -7793,7 +7855,7 @@
       </c>
       <c r="J92" s="24"/>
     </row>
-    <row r="93" spans="1:10" ht="15.75">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>154</v>
       </c>
@@ -7823,7 +7885,7 @@
       </c>
       <c r="J93" s="24"/>
     </row>
-    <row r="94" spans="1:10" ht="15.75">
+    <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>151</v>
       </c>
@@ -7837,7 +7899,7 @@
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
     </row>
-    <row r="95" spans="1:10" ht="15.75">
+    <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
         <v>152</v>
       </c>
@@ -7867,7 +7929,7 @@
       </c>
       <c r="J95" s="24"/>
     </row>
-    <row r="96" spans="1:10" ht="15.75">
+    <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>167</v>
       </c>
@@ -7897,7 +7959,7 @@
       </c>
       <c r="J96" s="24"/>
     </row>
-    <row r="97" spans="1:10" ht="15.75">
+    <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>169</v>
       </c>
@@ -7927,7 +7989,7 @@
       </c>
       <c r="J97" s="31"/>
     </row>
-    <row r="98" spans="1:10" ht="15.75">
+    <row r="98" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>170</v>
       </c>
@@ -7957,7 +8019,7 @@
       </c>
       <c r="J98" s="31"/>
     </row>
-    <row r="99" spans="1:10" ht="15.75">
+    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>171</v>
       </c>
@@ -7987,7 +8049,7 @@
       </c>
       <c r="J99" s="24"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
         <v>173</v>
       </c>
@@ -8017,7 +8079,7 @@
       </c>
       <c r="J100" s="24"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75">
+    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
         <v>280</v>
       </c>
@@ -8045,15 +8107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -8218,20 +8271,53 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
+    <ds:schemaRef ds:uri="3e63a3be-2d53-41f2-914e-dd0efc332534"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78F4A644-2F26-416A-80B8-BDF25CB5C9A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1723913-42AC-4EC7-A8E0-B67CF69074CA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF85E998-303B-428E-8489-11B5E8AB129B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>